--- a/学习计划与时间安排.xlsx
+++ b/学习计划与时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7020"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,24 @@
     <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\2.尚硅谷大数据学科--核心框架\尚硅谷spark教程</t>
   </si>
   <si>
+    <t>尚硅谷sparkStreaming</t>
+  </si>
+  <si>
+    <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\3.尚硅谷大数据学科--项目实战\尚硅谷大数据Spark实时项目Spark Streaming</t>
+  </si>
+  <si>
+    <t>尚硅谷sparkStreaming项目</t>
+  </si>
+  <si>
+    <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\3.尚硅谷大数据学科--项目实战\尚硅谷大数据电商项目(SparkStreaming实时处理)\</t>
+  </si>
+  <si>
+    <t>尚硅谷在线教育数仓项目</t>
+  </si>
+  <si>
+    <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\3.尚硅谷大数据学科--项目实战\在线教育数仓</t>
+  </si>
+  <si>
     <t>基于阿里云MaxCompute搭建数据仓库（离线）</t>
   </si>
   <si>
@@ -124,18 +142,6 @@
     <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\2.尚硅谷大数据学科--核心框架\尚硅谷大数据技术之HiveSQL</t>
   </si>
   <si>
-    <t>尚硅谷sparkStreaming</t>
-  </si>
-  <si>
-    <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\3.尚硅谷大数据学科--项目实战\尚硅谷大数据Spark实时项目Spark Streaming</t>
-  </si>
-  <si>
-    <t>尚硅谷sparkStreaming项目</t>
-  </si>
-  <si>
-    <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\3.尚硅谷大数据学科--项目实战\尚硅谷大数据电商项目(SparkStreaming实时处理)\</t>
-  </si>
-  <si>
     <t>尚硅谷大数据项目之金融审批离线数仓</t>
   </si>
   <si>
@@ -143,12 +149,6 @@
   </si>
   <si>
     <t>尚硅谷大数据项目之金融审批线上数仓</t>
-  </si>
-  <si>
-    <t>尚硅谷在线教育数仓项目</t>
-  </si>
-  <si>
-    <t>G:\尚硅谷大数据学科全套教程（总185.88GB）\3.尚硅谷大数据学科--项目实战\在线教育数仓</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1181,8 +1181,12 @@
       <c r="D3" s="3">
         <v>39.5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="4">
+        <v>45258</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45266</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" ht="86.4" spans="1:7">
@@ -1198,8 +1202,14 @@
       <c r="D4" s="3">
         <v>31</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4">
+        <f>F3+1</f>
+        <v>45267</v>
+      </c>
+      <c r="F4" s="4">
+        <f>ROUNDUP(E4+D4/5,0)-1</f>
+        <v>45273</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" ht="72" spans="1:7">
@@ -1215,8 +1225,14 @@
       <c r="D5" s="3">
         <v>21</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4">
+        <f>F4+1</f>
+        <v>45274</v>
+      </c>
+      <c r="F5" s="4">
+        <f>ROUNDUP(E5+D5/5,0)-1</f>
+        <v>45278</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" ht="72" spans="1:7">
@@ -1232,8 +1248,14 @@
       <c r="D6" s="3">
         <v>31</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E18" si="0">F5+1</f>
+        <v>45279</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F18" si="1">ROUNDUP(E6+D6/5,0)-1</f>
+        <v>45285</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" ht="43.2" spans="1:7">
@@ -1249,8 +1271,14 @@
       <c r="D7" s="3">
         <v>34</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>45286</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>45292</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="57.6" spans="1:7">
@@ -1266,8 +1294,14 @@
       <c r="D8" s="3">
         <v>13</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>45293</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>45295</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" ht="72" spans="1:7">
@@ -1283,8 +1317,14 @@
       <c r="D9" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>45296</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>45300</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" ht="57.6" spans="1:7">
@@ -1300,8 +1340,14 @@
       <c r="D10" s="3">
         <v>32</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>45301</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>45307</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" ht="72" spans="1:7">
@@ -1315,13 +1361,19 @@
         <v>26</v>
       </c>
       <c r="D11" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>45308</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>45315</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" ht="57.6" spans="1:7">
+    <row r="12" ht="72" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1332,10 +1384,16 @@
         <v>28</v>
       </c>
       <c r="D12" s="3">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>45316</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>45324</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="57.6" spans="1:7">
@@ -1349,10 +1407,16 @@
         <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>45325</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>45334</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="72" spans="1:7">
@@ -1366,13 +1430,19 @@
         <v>32</v>
       </c>
       <c r="D14" s="3">
-        <v>40</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>45335</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>45337</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" ht="72" spans="1:7">
+    <row r="15" ht="57.6" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -1383,10 +1453,16 @@
         <v>34</v>
       </c>
       <c r="D15" s="3">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>45338</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>45344</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="57.6" spans="1:7">
@@ -1394,16 +1470,22 @@
         <v>35</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="3">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>45345</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>45347</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="57.6" spans="1:7">
@@ -1414,30 +1496,42 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>45348</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>45351</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="57.6" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" s="3">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>45354</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">

--- a/学习计划与时间安排.xlsx
+++ b/学习计划与时间安排.xlsx
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1166,7 +1166,9 @@
       <c r="F2" s="4">
         <v>45257</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <v>45257</v>
+      </c>
     </row>
     <row r="3" ht="57.6" spans="1:7">
       <c r="A3" s="2" t="s">

--- a/学习计划与时间安排.xlsx
+++ b/学习计划与时间安排.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>课程名称</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>预计结束时间</t>
+  </si>
+  <si>
+    <t>实际开始时间</t>
   </si>
   <si>
     <t>实际结束时间</t>
@@ -162,10 +165,18 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,137 +661,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +805,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,24 +1121,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="26.5555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="25.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="21.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" customWidth="1"/>
+    <col min="6" max="7" width="21.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1146,16 +1160,19 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="57.6" spans="1:7">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="57.6" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>22.5</v>
@@ -1166,19 +1183,22 @@
       <c r="F2" s="4">
         <v>45257</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
+        <v>45255</v>
+      </c>
+      <c r="H2" s="5">
         <v>45257</v>
       </c>
     </row>
-    <row r="3" ht="57.6" spans="1:7">
+    <row r="3" ht="57.6" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>39.5</v>
@@ -1189,17 +1209,22 @@
       <c r="F3" s="4">
         <v>45266</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" ht="86.4" spans="1:7">
+      <c r="G3" s="5">
+        <v>45258</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45263</v>
+      </c>
+    </row>
+    <row r="4" ht="86.4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>31</v>
@@ -1212,17 +1237,20 @@
         <f>ROUNDUP(E4+D4/5,0)-1</f>
         <v>45273</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" ht="72" spans="1:7">
+      <c r="G4" s="5">
+        <v>45263</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" ht="72" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>21</v>
@@ -1236,16 +1264,17 @@
         <v>45278</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" ht="72" spans="1:7">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="72" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>31</v>
@@ -1259,16 +1288,17 @@
         <v>45285</v>
       </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" ht="43.2" spans="1:7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="43.2" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3">
         <v>34</v>
@@ -1282,16 +1312,17 @@
         <v>45292</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" ht="57.6" spans="1:7">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="57.6" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3">
         <v>13</v>
@@ -1305,16 +1336,17 @@
         <v>45295</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" ht="72" spans="1:7">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" ht="72" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3">
         <v>25</v>
@@ -1328,16 +1360,17 @@
         <v>45300</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="57.6" spans="1:7">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" ht="57.6" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>32</v>
@@ -1351,16 +1384,17 @@
         <v>45307</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" ht="72" spans="1:7">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" ht="72" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3">
         <v>40</v>
@@ -1374,16 +1408,17 @@
         <v>45315</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="72" spans="1:7">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" ht="72" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3">
         <v>43</v>
@@ -1397,16 +1432,17 @@
         <v>45324</v>
       </c>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" ht="57.6" spans="1:7">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="57.6" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3">
         <v>49</v>
@@ -1420,16 +1456,17 @@
         <v>45334</v>
       </c>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" ht="72" spans="1:7">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="72" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
@@ -1443,16 +1480,17 @@
         <v>45337</v>
       </c>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" ht="57.6" spans="1:7">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="57.6" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3">
         <v>31</v>
@@ -1466,16 +1504,17 @@
         <v>45344</v>
       </c>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" ht="57.6" spans="1:7">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" ht="57.6" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3">
         <v>13</v>
@@ -1489,16 +1528,17 @@
         <v>45347</v>
       </c>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" ht="57.6" spans="1:7">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" ht="57.6" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3">
         <v>19</v>
@@ -1512,16 +1552,17 @@
         <v>45351</v>
       </c>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" ht="57.6" spans="1:7">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" ht="57.6" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3">
         <v>14.5</v>
@@ -1535,8 +1576,9 @@
         <v>45354</v>
       </c>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -1544,8 +1586,9 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -1553,8 +1596,9 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -1562,8 +1606,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
@@ -1571,8 +1616,9 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
@@ -1580,8 +1626,9 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -1589,6 +1636,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
